--- a/data/test.xlsx
+++ b/data/test.xlsx
@@ -503,45 +503,45 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>105938700</t>
+          <t>105712081</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Руководитель отдела разработки</t>
+          <t>Водитель с ежедневными выплатами категория С (новый Шахман)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Нижний Новгород</t>
+          <t>Казань</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>500000</v>
+        <v>160000</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>От 500000 до 500000</t>
+          <t>От 160000 до 200000</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2024-08-17T00:06:43+0300</t>
+          <t>2024-08-16T12:41:19+0300</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>https://hh.ru/vacancy/105938700</t>
+          <t>https://hh.ru/vacancy/105712081</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Тихомиров Алексей</t>
+          <t>Основной Состав</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>Удаленная работа</t>
+          <t>Полный день</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -551,62 +551,62 @@
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>От 3 до 6 лет</t>
+          <t>От 1 года до 3 лет</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Опыт работы с JavaScript, TypeScript, NodeJS. Стеки: Frontend: JavaScript, TypeScript, ReactJS, Effector, ReactQuery, Antd. Backend: NodeJS, ExpressJS, &lt;highlighttext&gt;Python&lt;/highlighttext&gt;. </t>
+          <t>водительское удостоверение категории С.</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>Проведение аудита работы продукта: актуализация стека, проверка работы блоков и их взаимодействия между собой, актуализация кодовой базы. Внедрение предложений по...</t>
+          <t>...&lt;highlighttext&gt;водитель&lt;/highlighttext&gt; большегруза, &lt;highlighttext&gt;водитель&lt;/highlighttext&gt; тягача, &lt;highlighttext&gt;водитель&lt;/highlighttext&gt; тонара, &lt;highlighttext&gt;водитель&lt;/highlighttext&gt; Скания, &lt;highlighttext&gt;водитель&lt;/highlighttext&gt; ДАФ, &lt;highlighttext&gt;водитель&lt;/highlighttext&gt; Вольво, &lt;highlighttext&gt;водитель&lt;/highlighttext&gt; категории С, &lt;highlighttext&gt;водитель&lt;/highlighttext&gt; вахта, &lt;highlighttext&gt;водитель&lt;/highlighttext&gt; Камаза, &lt;highlighttext&gt;водитель&lt;/highlighttext&gt;...</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>104725699</t>
+          <t>105511626</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Руководитель отдела разметки данных</t>
+          <t>Водитель категории В вахта</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Москва</t>
+          <t>Иркутск</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>450000</v>
+        <v>150000</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>До 450000</t>
+          <t>От 150000</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2024-07-26T15:34:52+0300</t>
+          <t>2024-08-09T09:58:40+0300</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>https://hh.ru/vacancy/104725699</t>
+          <t>https://hh.ru/vacancy/105511626</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Энигма Групп</t>
+          <t>Энергострой</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>Полный день</t>
+          <t>Вахтовый метод</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -621,52 +621,52 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Понимаешь процессы разметки данных, имеешь опыт работы с инструментами для разметки данных. — Имеешь опыт работы с краудсорсинговыми платформами. — </t>
+          <t>Основное общее образование. Уверенный пользователь мобильного устройства, популярные мессенджеры. Водительское удостоверение кат. В . Опыт работы &lt;highlighttext&gt;водителем&lt;/highlighttext&gt; от 3 лет.</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>Координировать работу команды разметки, распределять задачи и контролировать их выполнение. — Разрабатывать и ставить задачи для разметки данных, необходимых для обучения...</t>
+          <t>Расчистку территории от лесной растительности механизированным способом. Сооружение временных технологических проездов. Рекультивацию земель, нарушенных при строительстве. Территория (участок, просека, площадка...</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>105737310</t>
+          <t>104790078</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Руководитель группы разработки</t>
+          <t>Водитель Е, D ( ВАХТА КРАСНОДАР)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Санкт-Петербург</t>
+          <t>Краснодар</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>350000</v>
+        <v>0</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>От 350000 до 450000</t>
+          <t>Зарплата не указана</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2024-08-16T13:35:07+0300</t>
+          <t>2024-08-09T14:50:36+0300</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>https://hh.ru/vacancy/105737310</t>
+          <t>https://hh.ru/vacancy/104790078</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>SPRINTHOST</t>
+          <t>Управление перспективных технологий</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -681,62 +681,62 @@
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>От 3 до 6 лет</t>
+          <t>Нет опыта</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>Понимание организации процесса разработки от аналитики до продакшена. Опыт внедрения сложных технологических решений (например, OpenStack). Знание и применение принципов непрерывной...</t>
+          <t>Обязателен опыт работы на автомобиле с прицепом (категория «Е» "Д").</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Сбор и формализация ключевых продуктовых требований. Декомпозиция, планирование, контроль, повторить. Оптимизация ресурсов команды, постоянное повышение эффективности её работы. </t>
+          <t>Соблюдение ПДД.</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>105640789</t>
+          <t>105879022</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Руководитель FP&amp;A</t>
+          <t>Водитель погрузчика / Вахта 30/30 Усть-Кут</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Москва</t>
+          <t>Иркутск</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>350000</v>
+        <v>140000</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>До 350000</t>
+          <t>От 140000</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2024-08-15T10:14:33+0300</t>
+          <t>2024-08-15T17:21:39+0300</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>https://hh.ru/vacancy/105640789</t>
+          <t>https://hh.ru/vacancy/105879022</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Юрент</t>
+          <t>Fersol</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>Полный день</t>
+          <t>Вахтовый метод</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -746,62 +746,62 @@
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>От 3 до 6 лет</t>
+          <t>От 1 года до 3 лет</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>Практический опыт работы с SQL/&lt;highlighttext&gt;Python&lt;/highlighttext&gt; будет дополнительным плюсом. Готовность работать на стыке финансов, дата аналитики, продукта, операций и маркетинга.</t>
+          <t>Наличие удостоверения тракториста-машиниста с категорией «С» с особой отметкой &lt;highlighttext&gt;Водитель&lt;/highlighttext&gt; (либо машинист) погрузчика. Опыт работы – от 1 года.</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Подготовка среднесрочного скользящего прогноза (P&amp;L, CF, BS) на ежемесячной основе, его калибровка на основе план-факт анализа. </t>
+          <t>Завоз/вывоз оборудования в рабочий цех. Погрузка/разгрузка автотранспорта погрузчиком (Toyota 5FD , Combilift C5000XL). Помощь другим работникам...</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>105748894</t>
+          <t>105721971</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Руководитель управления аналитики</t>
+          <t>Водитель (Автоцистерна, Урал полувахта с КМУ, Топливозаправщик)</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Москва</t>
+          <t>Красноярск</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>300000</v>
+        <v>235000</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>От 300000</t>
+          <t>До 235000</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2024-08-13T15:32:42+0300</t>
+          <t>2024-08-13T10:56:51+0300</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>https://hh.ru/vacancy/105748894</t>
+          <t>https://hh.ru/vacancy/105721971</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Российское общество Знание</t>
+          <t>УГРК Уранцветмет</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>Полный день</t>
+          <t>Вахтовый метод</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -816,12 +816,12 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t xml:space="preserve">Продвинутое знание SQL (Clickhouse, PostgreSQL), уверенные навыки работы с &lt;highlighttext&gt;Python&lt;/highlighttext&gt;, опыт работы с библиотеками и реляционными базами данных. </t>
+          <t xml:space="preserve">Опыт работы &lt;highlighttext&gt;водителем&lt;/highlighttext&gt; автомобиля желателен от 3-х лет. Водительское удостоверение с соответствующей категорией (ДОПОГ для &lt;highlighttext&gt;водителя&lt;/highlighttext&gt; АТЗ). </t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t xml:space="preserve">Выстраивать стратегию управления аналитики. Управлять командой аналитиков: найм новых сотрудников, развитие и обучение, обеспечение мотивации и вовлеченности сотрудников. </t>
+          <t>Управление автомобилем. Заправка ГСМ. ТО и текущий ремонт.</t>
         </is>
       </c>
     </row>
